--- a/显卡发货清单.xlsx
+++ b/显卡发货清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeroy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E1A71-B9F2-4D8F-B624-7BC70E66A48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848AE99-632C-4FF0-ADB9-B361B253CFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="360" windowWidth="28800" windowHeight="14535" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2月17日" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惠友伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白帆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,21 +112,10 @@
     <t>陈祉言</t>
   </si>
   <si>
-    <t>陈祉言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微星 万图师 3070</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蚌埠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽省蚌埠市蚌山区胜利街道涂山路空军干休所天缘婚纱</t>
-  </si>
-  <si>
     <t>快递公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,7 +129,6 @@
   </si>
   <si>
     <t>陈安平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>顺丰</t>
@@ -223,22 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黎柯杜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>441781198602010114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080078699034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>080078699052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>080078699098</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,34 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>080078699043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东江门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江门市开平市长沙街道长沙幕桥东路23号5幢105铺（Love You Baby 母婴馆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡绍元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440783198308217319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13828053553</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玄人志向 rx6800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,34 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华硕tuf 3070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江飞逸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330802200111094417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江衢州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衢州市柯城区花园街道巨化花径小区22栋二单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15057097633</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>董博秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,6 +311,93 @@
   </si>
   <si>
     <t>441522199210130663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080078718899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080078718905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080078718835</t>
+  </si>
+  <si>
+    <t>7999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽宿州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽宿州市埇桥区三八街道奇石城园上园别墅东区3栋318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18133772118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>340604199003020611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342201199401010620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106198205310817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420102198003161014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市江汉区唐家墩街街道香江花园2期8栋1单元202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13971313018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈德明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏盐城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏盐城市射阳县合德镇德发路顺丰快递后面二楼键嘉电脑科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18036296888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -814,10 +813,10 @@
         <v>18604093919</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -843,10 +842,10 @@
         <v>18604093919</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -860,51 +859,51 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
       <c r="H4">
         <v>13851577501</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>6100</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>15655262111</v>
+        <v>13851577501</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +918,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,73 +956,68 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>6100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>15655262111</v>
+        <v>13851577501</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>6100</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>15655262111</v>
+        <v>13851577501</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,7 +1026,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1075,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -1086,91 +1080,91 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>7050</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>13480231671</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>6899</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>18087506111</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>6899</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>18087506111</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -1206,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123D8AA4-89CD-4299-9ECB-F178C31B9F62}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1250,42 +1244,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>7050</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
-        <v>13480231671</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1296,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E18C8A-2669-40D9-A292-F088504A06BF}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1343,10 +1308,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -1354,237 +1319,350 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3">
         <v>6899</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3">
         <v>18087506111</v>
       </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>34</v>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/显卡发货清单.xlsx
+++ b/显卡发货清单.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeroy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeroy\code\github\video-card-shipping-records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848AE99-632C-4FF0-ADB9-B361B253CFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0488D6BA-F721-48EC-9F5E-B674E5BEC4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8415" yWindow="360" windowWidth="28800" windowHeight="14535" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="28800" windowHeight="14535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2月17日" sheetId="1" r:id="rId1"/>
     <sheet name="2月18日" sheetId="2" r:id="rId2"/>
     <sheet name="2月19日" sheetId="3" r:id="rId3"/>
-    <sheet name="2月22日" sheetId="4" r:id="rId4"/>
-    <sheet name="2月23日" sheetId="5" r:id="rId5"/>
+    <sheet name="2月23日" sheetId="5" r:id="rId4"/>
+    <sheet name="2月24日" sheetId="6" r:id="rId5"/>
+    <sheet name="2月25日" sheetId="7" r:id="rId6"/>
+    <sheet name="2月26日" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="164">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,18 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市龙岗区南湾街道李朗社区平吉大道78号友信冷冻食品批发市场B24-B25档口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15820715750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郭楠楠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +388,297 @@
   </si>
   <si>
     <t>18036296888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周路定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106194908181216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106198208151612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080078843406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080078843433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080078843479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerColor RX6800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33020319800326091X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江宁波江北区甬江街道天境花园3幢802室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777028610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3307932101600380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602-V390-08SB2012022849</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602-V390-08SB2012022981</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N205200006953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCYVYZ071161DF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602-V390-06SB2012037195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN210341027589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN210241018456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN210441028964</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN210241018455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG2101000160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N210300036247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N210300036441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N205200006921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N210300036265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N210600017185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N210300036250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N210300036370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟约约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330203198204290621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106195112171244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG2102002876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG2102002839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG2102002879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄人志向 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄辰曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342501198710241336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34262319890426031X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市大兴区清源街道保利茉莉公馆12号1楼1单元2101室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17318584268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐骏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330324199202160016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波市宁海县黄坛镇车站东路18号宁海县黄坛镇卫生院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13758410008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用电话： 15267893775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技嘉 魔鹰 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严睿琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610103200105303636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市浦东新区张江高科科技园青桐路18弄中芯花园48号701室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17521270530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕dual 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省苏州市园区亭北工业区临江路5号麦普机电有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18962190898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320502197910201511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束君妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320926198610081586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武牧之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32050419850901301x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映众 冰龙三风扇 3070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省苏州市园区亭北工业区临江路6号麦普机电有限公司</t>
+  </si>
+  <si>
+    <t>喻亚连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320926196203161547</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,13 +1025,13 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
@@ -765,7 +1046,7 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -826,6 +1107,9 @@
       <c r="B3">
         <v>5899</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
@@ -903,7 +1187,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -918,12 +1202,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
@@ -966,6 +1251,9 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
@@ -985,13 +1273,16 @@
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1302,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1026,18 +1317,20 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1071,7 +1364,7 @@
       <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L1" t="s">
@@ -1085,6 +1378,9 @@
       <c r="B2">
         <v>7050</v>
       </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1104,7 +1400,10 @@
         <v>13480231671</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -1115,6 +1414,9 @@
       <c r="B3">
         <v>6899</v>
       </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
@@ -1134,7 +1436,10 @@
         <v>18087506111</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1145,6 +1450,9 @@
       <c r="B4">
         <v>6899</v>
       </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -1164,7 +1472,10 @@
         <v>18087506111</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -1199,84 +1510,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123D8AA4-89CD-4299-9ECB-F178C31B9F62}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E18C8A-2669-40D9-A292-F088504A06BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E18C8A-2669-40D9-A292-F088504A06BF}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="3"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="71" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9" style="3"/>
+    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1324,23 +1580,26 @@
       <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
@@ -1353,6 +1612,9 @@
       <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1382,7 +1644,9 @@
       <c r="B4" s="3">
         <v>6899</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -1414,6 +1678,9 @@
       <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
@@ -1443,6 +1710,9 @@
       <c r="B6" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1472,6 +1742,9 @@
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1482,13 +1755,13 @@
         <v>66</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>69</v>
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>13851577501</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>30</v>
@@ -1501,23 +1774,26 @@
       <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13851577501</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
@@ -1528,25 +1804,28 @@
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>30</v>
@@ -1557,25 +1836,28 @@
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
@@ -1586,25 +1868,28 @@
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>30</v>
@@ -1615,25 +1900,28 @@
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>30</v>
@@ -1644,22 +1932,28 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>30</v>
@@ -1668,5 +1962,577 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAAF428-56FA-4AF8-8892-9B49C3943136}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64885A3-8A06-45CE-8EC8-7FD8E508C7D0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EBD0A1-04D4-49BE-94F7-FD6995AE15E4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>